--- a/Cresud.CDP.MainWebApp/Reports/CartasDePorte.xlsx
+++ b/Cresud.CDP.MainWebApp/Reports/CartasDePorte.xlsx
@@ -28,7 +28,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,8 +43,16 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -57,8 +65,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -66,16 +80,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,57 +437,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L726"/>
+  <dimension ref="A1:L720"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46.85546875" customWidth="1"/>
+    <col min="6" max="6" width="49.85546875" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" customWidth="1"/>
+    <col min="8" max="8" width="65.7109375" customWidth="1"/>
+    <col min="9" max="9" width="45" customWidth="1"/>
+    <col min="10" max="10" width="50.85546875" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" customWidth="1"/>
+    <col min="12" max="12" width="40.42578125" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" customWidth="1"/>
+    <col min="14" max="14" width="40.28515625" customWidth="1"/>
+    <col min="15" max="15" width="37.42578125" customWidth="1"/>
+    <col min="16" max="16" width="43.85546875" customWidth="1"/>
+    <col min="17" max="17" width="53.42578125" customWidth="1"/>
+    <col min="18" max="18" width="47.7109375" customWidth="1"/>
+    <col min="19" max="19" width="43" customWidth="1"/>
+    <col min="20" max="20" width="50.85546875" customWidth="1"/>
+    <col min="21" max="99" width="13" customWidth="1"/>
+    <col min="100" max="999" width="14" customWidth="1"/>
+    <col min="1000" max="9999" width="15" customWidth="1"/>
+    <col min="10000" max="16384" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
@@ -4507,37 +4532,31 @@
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
-      <c r="E678" s="1"/>
       <c r="F678" s="1"/>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
-      <c r="E679" s="1"/>
       <c r="F679" s="1"/>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
-      <c r="E680" s="1"/>
       <c r="F680" s="1"/>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
-      <c r="E681" s="1"/>
       <c r="F681" s="1"/>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
-      <c r="E682" s="1"/>
       <c r="F682" s="1"/>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
-      <c r="E683" s="1"/>
       <c r="F683" s="1"/>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
@@ -4718,44 +4737,11 @@
     <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
-      <c r="F719" s="1"/>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A720" s="1"/>
       <c r="B720" s="1"/>
-      <c r="F720" s="1"/>
-    </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A721" s="1"/>
-      <c r="B721" s="1"/>
-      <c r="F721" s="1"/>
-    </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A722" s="1"/>
-      <c r="B722" s="1"/>
-      <c r="F722" s="1"/>
-    </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A723" s="1"/>
-      <c r="B723" s="1"/>
-      <c r="F723" s="1"/>
-    </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A724" s="1"/>
-      <c r="B724" s="1"/>
-      <c r="F724" s="1"/>
-    </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A725" s="1"/>
-      <c r="B725" s="1"/>
-    </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B726" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
